--- a/blatt3/Blatt3.xlsx
+++ b/blatt3/Blatt3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tu-dortmund\wrums\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB030A84-3C16-4369-A391-2DF0C77B1C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345AEED2-E559-47E9-B2EF-2447505E9CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{22747335-024D-42E7-A706-EA488FA332DC}"/>
+    <workbookView xWindow="5772" yWindow="696" windowWidth="17280" windowHeight="8880" xr2:uid="{22747335-024D-42E7-A706-EA488FA332DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="39">
   <si>
     <t>Deutschland</t>
   </si>
@@ -138,6 +138,21 @@
   </si>
   <si>
     <t>Summe</t>
+  </si>
+  <si>
+    <t>Aufgabe 2e</t>
+  </si>
+  <si>
+    <t>Alter</t>
+  </si>
+  <si>
+    <t>Körpergröße</t>
+  </si>
+  <si>
+    <t>Alter gerankt</t>
+  </si>
+  <si>
+    <t>Körpergröße gerankt</t>
   </si>
 </sst>
 </file>
@@ -148,8 +163,16 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -352,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -489,6 +512,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -501,13 +530,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -824,23 +862,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFECD5C-7D42-4C89-BCD9-3731594CC7FF}">
-  <dimension ref="B1:O67"/>
+  <dimension ref="B1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="11.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" style="1" customWidth="1"/>
     <col min="4" max="10" width="8.88671875" style="1"/>
     <col min="11" max="12" width="8.77734375" style="1" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="50" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="2:8" s="46" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>32</v>
@@ -850,33 +888,33 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="46" t="s">
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="48" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="47"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
@@ -892,7 +930,7 @@
       <c r="G7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="47"/>
+      <c r="H7" s="49"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
@@ -996,33 +1034,33 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="46" t="s">
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="48" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="47"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="17" t="s">
         <v>3</v>
       </c>
@@ -1038,7 +1076,7 @@
       <c r="G16" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="47"/>
+      <c r="H16" s="49"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
@@ -1157,31 +1195,31 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="46"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="48"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="47"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="17" t="s">
         <v>3</v>
       </c>
@@ -1197,7 +1235,7 @@
       <c r="G25" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="47"/>
+      <c r="H25" s="49"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
@@ -1304,33 +1342,33 @@
       <c r="H29" s="2"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="46" t="s">
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="48" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="47"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="17" t="s">
         <v>3</v>
       </c>
@@ -1346,7 +1384,7 @@
       <c r="G34" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="47"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
@@ -1445,22 +1483,22 @@
       <c r="H38" s="15"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="46" t="s">
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="48" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="47"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="17" t="s">
         <v>3</v>
       </c>
@@ -1476,7 +1514,7 @@
       <c r="G42" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H42" s="47"/>
+      <c r="H42" s="49"/>
       <c r="J42" s="2"/>
       <c r="K42" s="17" t="s">
         <v>15</v>
@@ -1640,7 +1678,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="49" spans="2:15" s="50" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="2:15" s="46" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>28</v>
@@ -1650,33 +1688,33 @@
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="48" t="s">
+      <c r="C54" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="46" t="s">
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="48" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="47"/>
+      <c r="B55" s="49"/>
       <c r="C55" s="17" t="s">
         <v>3</v>
       </c>
@@ -1692,7 +1730,7 @@
       <c r="G55" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H55" s="47"/>
+      <c r="H55" s="49"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
@@ -1717,13 +1755,13 @@
         <f>110</f>
         <v>110</v>
       </c>
-      <c r="J56" s="46" t="s">
+      <c r="J56" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="K56" s="46"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="46"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
@@ -1797,15 +1835,15 @@
         <f t="shared" ref="J58:K58" si="24">POWER((C65-C57), 2)/C57</f>
         <v>6.8719076415612826E-2</v>
       </c>
-      <c r="K58" s="52">
+      <c r="K58" s="27">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L58" s="52">
+      <c r="L58" s="27">
         <f t="shared" ref="L58:L59" si="25">POWER((E65-E57), 2)/E57</f>
         <v>8.235294117647058</v>
       </c>
-      <c r="M58" s="52">
+      <c r="M58" s="27">
         <f t="shared" ref="M58:M59" si="26">POWER((F65-F57), 2)/F57</f>
         <v>3.6178823529411774</v>
       </c>
@@ -1864,15 +1902,15 @@
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B61" s="51" t="s">
+      <c r="B61" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
       <c r="J61" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,22 +1920,22 @@
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="48" t="s">
+      <c r="C62" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="48"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="46" t="s">
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="48" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B63" s="47"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="2" t="s">
         <v>3</v>
       </c>
@@ -1913,7 +1951,7 @@
       <c r="G63" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H63" s="47"/>
+      <c r="H63" s="49"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
@@ -2016,14 +2054,114 @@
         <v>340</v>
       </c>
     </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="4">
+        <v>9</v>
+      </c>
+      <c r="D72" s="5">
+        <v>6</v>
+      </c>
+      <c r="E72" s="5">
+        <v>12</v>
+      </c>
+      <c r="F72" s="5">
+        <v>10</v>
+      </c>
+      <c r="G72" s="5">
+        <v>8</v>
+      </c>
+      <c r="H72" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" s="55">
+        <v>3.5</v>
+      </c>
+      <c r="D73" s="56">
+        <v>1</v>
+      </c>
+      <c r="E73" s="56">
+        <v>6</v>
+      </c>
+      <c r="F73" s="56">
+        <v>5</v>
+      </c>
+      <c r="G73" s="56">
+        <v>2</v>
+      </c>
+      <c r="H73" s="57">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" s="4">
+        <v>130</v>
+      </c>
+      <c r="D74" s="5">
+        <v>125</v>
+      </c>
+      <c r="E74" s="5">
+        <v>145</v>
+      </c>
+      <c r="F74" s="5">
+        <v>140</v>
+      </c>
+      <c r="G74" s="5">
+        <v>130</v>
+      </c>
+      <c r="H74" s="6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="D75" s="53">
+        <v>1</v>
+      </c>
+      <c r="E75" s="53">
+        <v>6</v>
+      </c>
+      <c r="F75" s="53">
+        <v>4.5</v>
+      </c>
+      <c r="G75" s="53">
+        <v>2.5</v>
+      </c>
+      <c r="H75" s="54">
+        <v>4.5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="J56:N56"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:H16"/>
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="C62:G62"/>
     <mergeCell ref="H62:H63"/>
@@ -2033,19 +2171,16 @@
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="C41:G41"/>
     <mergeCell ref="H41:H42"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:H16"/>
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="H33:H34"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="J56:N56"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:H55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
